--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="E-R图" sheetId="1" r:id="rId1"/>
-    <sheet name="数据字典|设计表" sheetId="2" r:id="rId2"/>
+    <sheet name="数据字典|设计关系表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="64">
   <si>
     <t>数据字典设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,182 @@
   </si>
   <si>
     <t>CREATE DATABASE slms;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别：0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clientid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staffid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK:Client.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK:Goods.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK:Staff.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进货单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订货单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numeric(11,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经手人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价：9位整数，精确到2位小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价：9位整数，2位小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价：9位整数，2位小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间戳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -409,11 +585,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -451,6 +666,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -814,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A17" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -827,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:E52"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -903,406 +1121,547 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="13" t="s">
+      <c r="E11" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E14" s="16" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>11</v>
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-    </row>
+      <c r="E17" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
+      <c r="A19" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-    </row>
-    <row r="25" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="B27" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B28" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D28" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E28" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-    </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
+      <c r="A30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+      <c r="D31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-    </row>
-    <row r="35" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
+      <c r="B39" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="20"/>
+    </row>
+    <row r="40" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B40" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C40" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D40" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E40" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E41" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="2"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="2"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="2"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="2"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="2"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
-    </row>
-    <row r="43" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
-    </row>
-    <row r="45" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>7</v>
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="2"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="2"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="9"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="2"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="2"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="2"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="12"/>
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
